--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366286.7164360883</v>
+        <v>363741.5400206073</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>323.6959619980816</v>
@@ -1376,10 +1376,10 @@
         <v>313.106111847757</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.3004017861716</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>369.3447958805275</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524991</v>
+        <v>67.61083201524985</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U11" t="n">
-        <v>209.4182421859761</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V11" t="n">
-        <v>3.360742990733876</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W11" t="n">
         <v>307.6640389444871</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
         <v>125.6698913257019</v>
@@ -1540,10 +1540,10 @@
         <v>103.8441182500053</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861023</v>
+        <v>50.52679935684674</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413949</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712141</v>
+        <v>47.35522289712137</v>
       </c>
       <c r="S13" t="n">
-        <v>148.192095558516</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9720195032433</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U13" t="n">
-        <v>244.634908432687</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V13" t="n">
         <v>210.5607135509021</v>
@@ -1591,10 +1591,10 @@
         <v>244.9460685636651</v>
       </c>
       <c r="X13" t="n">
-        <v>110.2106464868545</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791689</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>341.1569118905547</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>323.6959619980817</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>233.2496017433733</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>369.3447958805276</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.0308346143946</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.57975247158998</v>
+        <v>67.61083201524991</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
         <v>209.4182421859761</v>
@@ -1673,7 +1673,7 @@
         <v>328.1541709055431</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831276</v>
+        <v>344.6610088831277</v>
       </c>
     </row>
     <row r="15">
@@ -1771,10 +1771,10 @@
         <v>107.0385432452864</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736433</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>22.50177138095746</v>
       </c>
       <c r="G16" t="n">
         <v>124.4488784861023</v>
@@ -1783,7 +1783,7 @@
         <v>103.1780851413949</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691217</v>
+        <v>54.77549063691219</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712141</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>148.192095558516</v>
@@ -1822,13 +1822,13 @@
         <v>244.634908432687</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86314378473286</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W16" t="n">
         <v>244.9460685636651</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161113</v>
       </c>
       <c r="Y16" t="n">
         <v>177.0077235791689</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.0618795246039</v>
+        <v>332.061879524604</v>
       </c>
       <c r="C17" t="n">
-        <v>314.6009296321309</v>
+        <v>314.600929632131</v>
       </c>
       <c r="D17" t="n">
-        <v>304.0110794818063</v>
+        <v>6.08222974718683</v>
       </c>
       <c r="E17" t="n">
-        <v>331.2584079333851</v>
+        <v>331.2584079333852</v>
       </c>
       <c r="F17" t="n">
-        <v>356.2040836028348</v>
+        <v>356.2040836028349</v>
       </c>
       <c r="G17" t="n">
-        <v>360.2497635145768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9358022484438</v>
+        <v>243.9358022484439</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.5157996492992</v>
+        <v>58.51579964929928</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>153.2460080007436</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>200.3232098200254</v>
       </c>
       <c r="V17" t="n">
-        <v>271.0399074813679</v>
+        <v>277.0802963312584</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>298.5690065785365</v>
       </c>
       <c r="X17" t="n">
-        <v>319.0591385395924</v>
+        <v>319.0591385395925</v>
       </c>
       <c r="Y17" t="n">
         <v>335.565976517177</v>
@@ -2002,25 +2002,25 @@
         <v>129.1600180430607</v>
       </c>
       <c r="C19" t="n">
-        <v>116.5748589597512</v>
+        <v>116.5748589597513</v>
       </c>
       <c r="D19" t="n">
-        <v>97.94351087933572</v>
+        <v>97.9435108793358</v>
       </c>
       <c r="E19" t="n">
-        <v>95.76200050769253</v>
+        <v>95.76200050769262</v>
       </c>
       <c r="F19" t="n">
-        <v>94.74908588405461</v>
+        <v>94.74908588405469</v>
       </c>
       <c r="G19" t="n">
-        <v>115.3538461201516</v>
+        <v>115.3538461201517</v>
       </c>
       <c r="H19" t="n">
-        <v>94.08305277544414</v>
+        <v>94.08305277544423</v>
       </c>
       <c r="I19" t="n">
-        <v>45.68045827096146</v>
+        <v>45.68045827096154</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.26019053117069</v>
+        <v>38.26019053117078</v>
       </c>
       <c r="S19" t="n">
         <v>139.0970631925653</v>
@@ -2056,7 +2056,7 @@
         <v>168.8769871372926</v>
       </c>
       <c r="U19" t="n">
-        <v>235.5398760667362</v>
+        <v>235.5398760667363</v>
       </c>
       <c r="V19" t="n">
         <v>201.4656811849514</v>
@@ -2065,7 +2065,7 @@
         <v>235.8510361977144</v>
       </c>
       <c r="X19" t="n">
-        <v>175.0376932501605</v>
+        <v>175.0376932501606</v>
       </c>
       <c r="Y19" t="n">
         <v>167.9126912132182</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.0618795246039</v>
+        <v>332.061879524604</v>
       </c>
       <c r="C20" t="n">
-        <v>314.6009296321309</v>
+        <v>314.600929632131</v>
       </c>
       <c r="D20" t="n">
-        <v>2.036549835445816</v>
+        <v>304.0110794818064</v>
       </c>
       <c r="E20" t="n">
-        <v>331.2584079333851</v>
+        <v>331.2584079333852</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>360.2497635145768</v>
+        <v>360.2497635145769</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9358022484438</v>
+        <v>219.0415689333406</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.5157996492992</v>
+        <v>58.51579964929928</v>
       </c>
       <c r="T20" t="n">
-        <v>153.2460080007435</v>
+        <v>153.2460080007436</v>
       </c>
       <c r="U20" t="n">
-        <v>200.3232098200253</v>
+        <v>200.3232098200254</v>
       </c>
       <c r="V20" t="n">
-        <v>277.0802963312583</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>298.5690065785363</v>
+        <v>298.5690065785365</v>
       </c>
       <c r="X20" t="n">
-        <v>319.0591385395924</v>
+        <v>319.0591385395925</v>
       </c>
       <c r="Y20" t="n">
         <v>335.565976517177</v>
@@ -2239,25 +2239,25 @@
         <v>129.1600180430607</v>
       </c>
       <c r="C22" t="n">
-        <v>116.5748589597512</v>
+        <v>116.5748589597513</v>
       </c>
       <c r="D22" t="n">
-        <v>97.94351087933572</v>
+        <v>97.9435108793358</v>
       </c>
       <c r="E22" t="n">
-        <v>95.76200050769253</v>
+        <v>95.76200050769262</v>
       </c>
       <c r="F22" t="n">
-        <v>94.74908588405461</v>
+        <v>94.74908588405469</v>
       </c>
       <c r="G22" t="n">
-        <v>115.3538461201516</v>
+        <v>115.3538461201517</v>
       </c>
       <c r="H22" t="n">
-        <v>94.08305277544414</v>
+        <v>94.08305277544423</v>
       </c>
       <c r="I22" t="n">
-        <v>45.68045827096146</v>
+        <v>45.68045827096154</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.26019053117069</v>
+        <v>38.26019053117078</v>
       </c>
       <c r="S22" t="n">
         <v>139.0970631925653</v>
@@ -2293,7 +2293,7 @@
         <v>168.8769871372926</v>
       </c>
       <c r="U22" t="n">
-        <v>235.5398760667362</v>
+        <v>235.5398760667363</v>
       </c>
       <c r="V22" t="n">
         <v>201.4656811849514</v>
@@ -2302,7 +2302,7 @@
         <v>235.8510361977144</v>
       </c>
       <c r="X22" t="n">
-        <v>175.0376932501605</v>
+        <v>175.0376932501606</v>
       </c>
       <c r="Y22" t="n">
         <v>167.9126912132182</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.0618795246039</v>
+        <v>332.061879524604</v>
       </c>
       <c r="C23" t="n">
-        <v>314.6009296321309</v>
+        <v>314.600929632131</v>
       </c>
       <c r="D23" t="n">
-        <v>304.0110794818063</v>
+        <v>304.0110794818064</v>
       </c>
       <c r="E23" t="n">
-        <v>331.2584079333851</v>
+        <v>331.2584079333852</v>
       </c>
       <c r="F23" t="n">
-        <v>356.2040836028348</v>
+        <v>356.2040836028349</v>
       </c>
       <c r="G23" t="n">
-        <v>360.2497635145768</v>
+        <v>360.2497635145769</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9358022484438</v>
+        <v>243.9358022484439</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.5157996492992</v>
+        <v>58.51579964929928</v>
       </c>
       <c r="T23" t="n">
-        <v>153.2460080007435</v>
+        <v>153.2460080007436</v>
       </c>
       <c r="U23" t="n">
-        <v>200.3232098200253</v>
+        <v>200.3232098200254</v>
       </c>
       <c r="V23" t="n">
-        <v>277.0802963312583</v>
+        <v>277.0802963312584</v>
       </c>
       <c r="W23" t="n">
-        <v>298.5690065785363</v>
+        <v>298.5690065785365</v>
       </c>
       <c r="X23" t="n">
-        <v>319.0591385395924</v>
+        <v>319.0591385395925</v>
       </c>
       <c r="Y23" t="n">
         <v>335.565976517177</v>
@@ -2476,25 +2476,25 @@
         <v>129.1600180430607</v>
       </c>
       <c r="C25" t="n">
-        <v>116.5748589597512</v>
+        <v>116.5748589597513</v>
       </c>
       <c r="D25" t="n">
-        <v>97.94351087933572</v>
+        <v>97.9435108793358</v>
       </c>
       <c r="E25" t="n">
-        <v>95.76200050769253</v>
+        <v>95.76200050769262</v>
       </c>
       <c r="F25" t="n">
-        <v>94.74908588405461</v>
+        <v>94.74908588405469</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3538461201516</v>
+        <v>115.3538461201517</v>
       </c>
       <c r="H25" t="n">
-        <v>94.08305277544414</v>
+        <v>94.08305277544423</v>
       </c>
       <c r="I25" t="n">
-        <v>45.68045827096146</v>
+        <v>45.68045827096154</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.26019053117069</v>
+        <v>38.26019053117078</v>
       </c>
       <c r="S25" t="n">
         <v>139.0970631925653</v>
@@ -2530,7 +2530,7 @@
         <v>168.8769871372926</v>
       </c>
       <c r="U25" t="n">
-        <v>235.5398760667362</v>
+        <v>235.5398760667363</v>
       </c>
       <c r="V25" t="n">
         <v>201.4656811849514</v>
@@ -2539,7 +2539,7 @@
         <v>235.8510361977144</v>
       </c>
       <c r="X25" t="n">
-        <v>175.0376932501605</v>
+        <v>175.0376932501606</v>
       </c>
       <c r="Y25" t="n">
         <v>167.9126912132182</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404361</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U38" t="n">
         <v>204.0200353403094</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958331</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,7 +4034,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1707.397793512533</v>
+        <v>1602.348587267468</v>
       </c>
       <c r="C11" t="n">
-        <v>1380.432175332653</v>
+        <v>1275.382969087588</v>
       </c>
       <c r="D11" t="n">
-        <v>1064.163375486434</v>
+        <v>959.1141692413689</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.163375486434</v>
+        <v>695.1743694573572</v>
       </c>
       <c r="F11" t="n">
         <v>695.1743694573572</v>
@@ -5036,13 +5036,13 @@
         <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3257.312051896798</v>
+        <v>3257.312051896799</v>
       </c>
       <c r="T11" t="n">
-        <v>3257.312051896798</v>
+        <v>3093.331203041552</v>
       </c>
       <c r="U11" t="n">
-        <v>3045.778473931166</v>
+        <v>2881.79762507592</v>
       </c>
       <c r="V11" t="n">
-        <v>3042.383784041535</v>
+        <v>2592.73163649288</v>
       </c>
       <c r="W11" t="n">
-        <v>2731.612027531953</v>
+        <v>2281.959879983297</v>
       </c>
       <c r="X11" t="n">
-        <v>2400.143168031404</v>
+        <v>1950.491020482749</v>
       </c>
       <c r="Y11" t="n">
-        <v>2052.000734816123</v>
+        <v>1602.348587267468</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.3066106969652</v>
+        <v>667.6378438997366</v>
       </c>
       <c r="C13" t="n">
-        <v>615.3673265295896</v>
+        <v>540.698559732361</v>
       </c>
       <c r="D13" t="n">
-        <v>507.2475858777851</v>
+        <v>432.5788190805565</v>
       </c>
       <c r="E13" t="n">
-        <v>401.3313910559233</v>
+        <v>326.6626242586947</v>
       </c>
       <c r="F13" t="n">
-        <v>296.4383423185442</v>
+        <v>221.7695755213164</v>
       </c>
       <c r="G13" t="n">
         <v>170.7324044537944</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543156</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783887</v>
+        <v>397.9442527783888</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020814</v>
+        <v>755.6652117020816</v>
       </c>
       <c r="M13" t="n">
         <v>1140.983417776827</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.552954957888</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P13" t="n">
         <v>2137.812375262355</v>
@@ -5221,13 +5221,13 @@
         <v>2256.583831890066</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408125</v>
+        <v>2208.750273408126</v>
       </c>
       <c r="S13" t="n">
         <v>2059.061287995483</v>
       </c>
       <c r="T13" t="n">
-        <v>1879.29157132554</v>
+        <v>1879.291571325541</v>
       </c>
       <c r="U13" t="n">
         <v>1632.185603211715</v>
@@ -5239,10 +5239,10 @@
         <v>1172.07774248993</v>
       </c>
       <c r="X13" t="n">
-        <v>1060.753857149673</v>
+        <v>986.0850903524439</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.9581767666737</v>
+        <v>807.289409969445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1479.333645873325</v>
+        <v>1257.745645963877</v>
       </c>
       <c r="C14" t="n">
-        <v>1152.368027693445</v>
+        <v>930.7800277839965</v>
       </c>
       <c r="D14" t="n">
-        <v>1152.368027693445</v>
+        <v>695.1743694573574</v>
       </c>
       <c r="E14" t="n">
-        <v>808.576673855732</v>
+        <v>695.1743694573574</v>
       </c>
       <c r="F14" t="n">
-        <v>439.5876678266557</v>
+        <v>695.1743694573574</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>322.0988180628851</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081056</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3314.919202951</v>
+        <v>3257.312051896799</v>
       </c>
       <c r="T14" t="n">
-        <v>3314.919202951</v>
+        <v>3093.331203041552</v>
       </c>
       <c r="U14" t="n">
-        <v>3103.385624985367</v>
+        <v>2881.797625075919</v>
       </c>
       <c r="V14" t="n">
-        <v>2814.319636402328</v>
+        <v>2592.73163649288</v>
       </c>
       <c r="W14" t="n">
-        <v>2503.547879892745</v>
+        <v>2281.959879983297</v>
       </c>
       <c r="X14" t="n">
-        <v>2172.079020392197</v>
+        <v>1950.491020482748</v>
       </c>
       <c r="Y14" t="n">
-        <v>1823.936587176916</v>
+        <v>1602.348587267468</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>797.6353891180888</v>
+        <v>715.471402381677</v>
       </c>
       <c r="C16" t="n">
-        <v>670.6961049507131</v>
+        <v>588.5321182143012</v>
       </c>
       <c r="D16" t="n">
-        <v>562.5763642989086</v>
+        <v>480.4123775624967</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6601694770467</v>
+        <v>374.4961827406348</v>
       </c>
       <c r="F16" t="n">
-        <v>351.7671207396676</v>
+        <v>351.7671207396677</v>
       </c>
       <c r="G16" t="n">
         <v>226.0611828749178</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>121.8408948533069</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543154</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783884</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020813</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
@@ -5458,28 +5458,28 @@
         <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995483</v>
+        <v>2106.894846477423</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.29157132554</v>
+        <v>1927.125129807481</v>
       </c>
       <c r="U16" t="n">
-        <v>1632.185603211715</v>
+        <v>1680.019161693655</v>
       </c>
       <c r="V16" t="n">
-        <v>1549.495558984712</v>
+        <v>1467.3315722483</v>
       </c>
       <c r="W16" t="n">
-        <v>1302.075287708283</v>
+        <v>1219.911300971871</v>
       </c>
       <c r="X16" t="n">
-        <v>1116.082635570796</v>
+        <v>1033.918648834384</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.2869551877973</v>
+        <v>855.1229684513853</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1996.067739071757</v>
+        <v>1331.240857001862</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.289022271625</v>
+        <v>1013.46214020173</v>
       </c>
       <c r="D17" t="n">
-        <v>1371.207123805154</v>
+        <v>1007.31847379043</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.602671347189</v>
+        <v>672.7140213324651</v>
       </c>
       <c r="F17" t="n">
-        <v>676.8005666978611</v>
+        <v>312.9119166831369</v>
       </c>
       <c r="G17" t="n">
-        <v>312.9119166831368</v>
+        <v>312.9119166831369</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5534,7 +5534,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609172</v>
@@ -5543,22 +5543,22 @@
         <v>3266.498953276547</v>
       </c>
       <c r="T17" t="n">
-        <v>3266.498953276547</v>
+        <v>3111.705005801048</v>
       </c>
       <c r="U17" t="n">
-        <v>3266.498953276547</v>
+        <v>2909.358329215164</v>
       </c>
       <c r="V17" t="n">
-        <v>2992.721268951932</v>
+        <v>2629.479242011872</v>
       </c>
       <c r="W17" t="n">
-        <v>2992.721268951932</v>
+        <v>2327.894386882038</v>
       </c>
       <c r="X17" t="n">
-        <v>2670.439310831132</v>
+        <v>2005.612428761237</v>
       </c>
       <c r="Y17" t="n">
-        <v>2331.4837789956</v>
+        <v>1666.656896925705</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.3270794598513</v>
+        <v>733.327079459852</v>
       </c>
       <c r="C19" t="n">
-        <v>615.5746966722239</v>
+        <v>615.5746966722245</v>
       </c>
       <c r="D19" t="n">
-        <v>516.6418574001676</v>
+        <v>516.6418574001681</v>
       </c>
       <c r="E19" t="n">
-        <v>419.912563958054</v>
+        <v>419.9125639580543</v>
       </c>
       <c r="F19" t="n">
-        <v>324.206416600423</v>
+        <v>324.2064166004233</v>
       </c>
       <c r="G19" t="n">
-        <v>207.6873801154214</v>
+        <v>207.6873801154216</v>
       </c>
       <c r="H19" t="n">
-        <v>112.6539934735586</v>
+        <v>112.6539934735588</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>161.7999913966069</v>
+        <v>122.9397007181489</v>
       </c>
       <c r="K19" t="n">
-        <v>415.9524168629711</v>
+        <v>377.0921261845131</v>
       </c>
       <c r="L19" t="n">
-        <v>782.6774578289551</v>
+        <v>743.817167150497</v>
       </c>
       <c r="M19" t="n">
-        <v>1176.999745945992</v>
+        <v>1138.139455267534</v>
       </c>
       <c r="N19" t="n">
-        <v>1529.713074490884</v>
+        <v>1529.713074490886</v>
       </c>
       <c r="O19" t="n">
-        <v>1879.207915928785</v>
+        <v>1879.207915928787</v>
       </c>
       <c r="P19" t="n">
-        <v>2161.980658879932</v>
+        <v>2111.815416362447</v>
       </c>
       <c r="Q19" t="n">
-        <v>2239.590955032447</v>
+        <v>2239.590955032449</v>
       </c>
       <c r="R19" t="n">
-        <v>2200.944297930255</v>
+        <v>2200.944297930256</v>
       </c>
       <c r="S19" t="n">
-        <v>2060.44221389736</v>
+        <v>2060.442213897362</v>
       </c>
       <c r="T19" t="n">
-        <v>1889.859398607166</v>
+        <v>1889.859398607167</v>
       </c>
       <c r="U19" t="n">
-        <v>1651.940331873089</v>
+        <v>1651.94033187309</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.439643807481</v>
+        <v>1448.439643807483</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.2062739108</v>
+        <v>1210.206273910801</v>
       </c>
       <c r="X19" t="n">
-        <v>1033.400523153062</v>
+        <v>1033.400523153063</v>
       </c>
       <c r="Y19" t="n">
-        <v>863.7917441498116</v>
+        <v>863.7917441498124</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1331.240857001863</v>
+        <v>1611.119944205154</v>
       </c>
       <c r="C20" t="n">
-        <v>1013.46214020173</v>
+        <v>1293.341227405022</v>
       </c>
       <c r="D20" t="n">
-        <v>1011.405019155826</v>
+        <v>986.2593289385507</v>
       </c>
       <c r="E20" t="n">
-        <v>676.8005666978607</v>
+        <v>651.654876480585</v>
       </c>
       <c r="F20" t="n">
-        <v>676.8005666978607</v>
+        <v>651.654876480585</v>
       </c>
       <c r="G20" t="n">
-        <v>312.9119166831367</v>
+        <v>287.7662264658609</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912097</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609172</v>
@@ -5783,19 +5783,19 @@
         <v>3111.705005801048</v>
       </c>
       <c r="U20" t="n">
-        <v>2909.358329215163</v>
+        <v>2909.358329215164</v>
       </c>
       <c r="V20" t="n">
-        <v>2629.479242011872</v>
+        <v>2909.358329215164</v>
       </c>
       <c r="W20" t="n">
-        <v>2327.894386882037</v>
+        <v>2607.773474085329</v>
       </c>
       <c r="X20" t="n">
-        <v>2005.612428761237</v>
+        <v>2285.491515964529</v>
       </c>
       <c r="Y20" t="n">
-        <v>1666.656896925705</v>
+        <v>1946.535984128996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.3270794598513</v>
+        <v>733.327079459852</v>
       </c>
       <c r="C22" t="n">
-        <v>615.5746966722239</v>
+        <v>615.5746966722245</v>
       </c>
       <c r="D22" t="n">
-        <v>516.6418574001676</v>
+        <v>516.6418574001681</v>
       </c>
       <c r="E22" t="n">
-        <v>419.912563958054</v>
+        <v>419.9125639580543</v>
       </c>
       <c r="F22" t="n">
-        <v>324.206416600423</v>
+        <v>324.2064166004233</v>
       </c>
       <c r="G22" t="n">
-        <v>207.6873801154214</v>
+        <v>207.6873801154216</v>
       </c>
       <c r="H22" t="n">
-        <v>112.6539934735586</v>
+        <v>112.6539934735588</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>122.9397007181487</v>
       </c>
       <c r="K22" t="n">
-        <v>365.7871743454833</v>
+        <v>377.0921261845129</v>
       </c>
       <c r="L22" t="n">
-        <v>732.5122153114673</v>
+        <v>693.651924633009</v>
       </c>
       <c r="M22" t="n">
-        <v>1126.834503428504</v>
+        <v>1087.974212750046</v>
       </c>
       <c r="N22" t="n">
-        <v>1518.408122651857</v>
+        <v>1479.547831973398</v>
       </c>
       <c r="O22" t="n">
-        <v>1829.042673411297</v>
+        <v>1829.0426734113</v>
       </c>
       <c r="P22" t="n">
-        <v>2111.815416362444</v>
+        <v>2111.815416362447</v>
       </c>
       <c r="Q22" t="n">
-        <v>2239.590955032447</v>
+        <v>2239.590955032449</v>
       </c>
       <c r="R22" t="n">
-        <v>2200.944297930255</v>
+        <v>2200.944297930256</v>
       </c>
       <c r="S22" t="n">
-        <v>2060.44221389736</v>
+        <v>2060.442213897362</v>
       </c>
       <c r="T22" t="n">
-        <v>1889.859398607166</v>
+        <v>1889.859398607167</v>
       </c>
       <c r="U22" t="n">
-        <v>1651.940331873089</v>
+        <v>1651.94033187309</v>
       </c>
       <c r="V22" t="n">
-        <v>1448.439643807481</v>
+        <v>1448.439643807483</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.2062739108</v>
+        <v>1210.206273910801</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.400523153062</v>
+        <v>1033.400523153063</v>
       </c>
       <c r="Y22" t="n">
-        <v>863.7917441498116</v>
+        <v>863.7917441498124</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2009.635634624203</v>
+        <v>2009.635634624205</v>
       </c>
       <c r="C23" t="n">
-        <v>1691.85691782407</v>
+        <v>1691.856917824073</v>
       </c>
       <c r="D23" t="n">
-        <v>1384.775019357599</v>
+        <v>1384.775019357601</v>
       </c>
       <c r="E23" t="n">
-        <v>1050.170566899635</v>
+        <v>1050.170566899636</v>
       </c>
       <c r="F23" t="n">
-        <v>690.3684622503069</v>
+        <v>690.3684622503083</v>
       </c>
       <c r="G23" t="n">
-        <v>326.4798122355836</v>
+        <v>326.4798122355838</v>
       </c>
       <c r="H23" t="n">
-        <v>80.08001198463026</v>
+        <v>80.0800119846303</v>
       </c>
       <c r="I23" t="n">
-        <v>80.08001198463026</v>
+        <v>80.0800119846303</v>
       </c>
       <c r="J23" t="n">
-        <v>268.9591429436557</v>
+        <v>268.9591429436558</v>
       </c>
       <c r="K23" t="n">
-        <v>854.1207962984511</v>
+        <v>602.7785166335022</v>
       </c>
       <c r="L23" t="n">
-        <v>1718.639611951806</v>
+        <v>1053.812729881911</v>
       </c>
       <c r="M23" t="n">
-        <v>2252.17151662373</v>
+        <v>1587.344634553835</v>
       </c>
       <c r="N23" t="n">
-        <v>2798.950333682513</v>
+        <v>2567.096906780482</v>
       </c>
       <c r="O23" t="n">
-        <v>3301.92280456185</v>
+        <v>3070.069377659819</v>
       </c>
       <c r="P23" t="n">
-        <v>3696.697170919028</v>
+        <v>3486.505330165724</v>
       </c>
       <c r="Q23" t="n">
-        <v>3944.98353267471</v>
+        <v>3944.983532674712</v>
       </c>
       <c r="R23" t="n">
-        <v>4004.000599231513</v>
+        <v>4004.000599231515</v>
       </c>
       <c r="S23" t="n">
-        <v>3944.893730898887</v>
+        <v>3944.893730898889</v>
       </c>
       <c r="T23" t="n">
-        <v>3790.099783423389</v>
+        <v>3790.099783423391</v>
       </c>
       <c r="U23" t="n">
-        <v>3587.753106837504</v>
+        <v>3587.753106837506</v>
       </c>
       <c r="V23" t="n">
-        <v>3307.874019634213</v>
+        <v>3307.874019634215</v>
       </c>
       <c r="W23" t="n">
-        <v>3006.289164504378</v>
+        <v>3006.28916450438</v>
       </c>
       <c r="X23" t="n">
-        <v>2684.007206383577</v>
+        <v>2684.00720638358</v>
       </c>
       <c r="Y23" t="n">
-        <v>2345.051674548045</v>
+        <v>2345.051674548047</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>631.7243110911772</v>
       </c>
       <c r="E24" t="n">
-        <v>472.4868560857217</v>
+        <v>472.4868560857218</v>
       </c>
       <c r="F24" t="n">
         <v>325.9522981126067</v>
@@ -6060,10 +6060,10 @@
         <v>189.5891979452248</v>
       </c>
       <c r="H24" t="n">
-        <v>99.08730358309231</v>
+        <v>99.08730358309234</v>
       </c>
       <c r="I24" t="n">
-        <v>80.08001198463026</v>
+        <v>80.0800119846303</v>
       </c>
       <c r="J24" t="n">
         <v>173.7572814752476</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.8949750122983</v>
+        <v>746.8949750122989</v>
       </c>
       <c r="C25" t="n">
-        <v>629.1425922246708</v>
+        <v>629.1425922246714</v>
       </c>
       <c r="D25" t="n">
-        <v>530.2097529526145</v>
+        <v>530.209752952615</v>
       </c>
       <c r="E25" t="n">
-        <v>433.4804595105008</v>
+        <v>433.4804595105012</v>
       </c>
       <c r="F25" t="n">
-        <v>337.7743121528699</v>
+        <v>337.7743121528702</v>
       </c>
       <c r="G25" t="n">
-        <v>221.2552756678683</v>
+        <v>221.2552756678685</v>
       </c>
       <c r="H25" t="n">
-        <v>126.2218890260055</v>
+        <v>126.2218890260056</v>
       </c>
       <c r="I25" t="n">
-        <v>80.08001198463026</v>
+        <v>80.0800119846303</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5075962705931</v>
+        <v>136.5075962705952</v>
       </c>
       <c r="K25" t="n">
-        <v>390.6600217369574</v>
+        <v>390.6600217369594</v>
       </c>
       <c r="L25" t="n">
-        <v>707.2198201854535</v>
+        <v>757.3850627029433</v>
       </c>
       <c r="M25" t="n">
-        <v>1101.54210830249</v>
+        <v>1151.70735081998</v>
       </c>
       <c r="N25" t="n">
-        <v>1493.115727525843</v>
+        <v>1543.280970043333</v>
       </c>
       <c r="O25" t="n">
-        <v>1842.610568963744</v>
+        <v>1892.775811481234</v>
       </c>
       <c r="P25" t="n">
-        <v>2125.383311914891</v>
+        <v>2175.548554432381</v>
       </c>
       <c r="Q25" t="n">
-        <v>2253.158850584894</v>
+        <v>2253.158850584896</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.512193482702</v>
+        <v>2214.512193482703</v>
       </c>
       <c r="S25" t="n">
-        <v>2074.010109449807</v>
+        <v>2074.010109449809</v>
       </c>
       <c r="T25" t="n">
-        <v>1903.427294159613</v>
+        <v>1903.427294159614</v>
       </c>
       <c r="U25" t="n">
-        <v>1665.508227425536</v>
+        <v>1665.508227425537</v>
       </c>
       <c r="V25" t="n">
-        <v>1462.007539359928</v>
+        <v>1462.007539359929</v>
       </c>
       <c r="W25" t="n">
-        <v>1223.774169463247</v>
+        <v>1223.774169463248</v>
       </c>
       <c r="X25" t="n">
-        <v>1046.968418705509</v>
+        <v>1046.96841870551</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.3596397022586</v>
+        <v>877.3596397022593</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6227,16 +6227,16 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>875.9322461484389</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1326.966459396848</v>
+        <v>1394.992678104634</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O26" t="n">
         <v>3355.268050164796</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6367,22 +6367,22 @@
         <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6467,22 +6467,22 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N29" t="n">
-        <v>2548.674958929623</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737237</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834459</v>
@@ -6491,7 +6491,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6543,10 +6543,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913846</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,13 +6640,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697162</v>
@@ -6701,25 +6701,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.208754682581</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805549</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1062.439973388315</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6944,19 +6944,19 @@
         <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2577.044482857901</v>
       </c>
       <c r="O35" t="n">
-        <v>3182.560655874485</v>
+        <v>3080.016953737238</v>
       </c>
       <c r="P35" t="n">
-        <v>3577.335022231663</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834459</v>
@@ -7093,19 +7093,19 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O37" t="n">
         <v>1910.743863481264</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L38" t="n">
-        <v>1635.769886219269</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M38" t="n">
-        <v>2169.301790891193</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611205</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490542</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1388.344880790731</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1921.876785462656</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2468.655602521438</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O41" t="n">
-        <v>2971.628073400775</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
@@ -7451,10 +7451,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K42" t="n">
         <v>413.0883853676538</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982174</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7588,31 +7588,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
         <v>1711.594658697161</v>
@@ -7640,10 +7640,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
@@ -7652,34 +7652,34 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.153040037425</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1711.68494470935</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N44" t="n">
-        <v>2258.463761768132</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647469</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468334</v>
@@ -7688,7 +7688,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982171</v>
@@ -7819,37 +7819,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8456,16 +8456,16 @@
         <v>204.9758093342897</v>
       </c>
       <c r="L8" t="n">
-        <v>217.0161097528859</v>
+        <v>217.016109752886</v>
       </c>
       <c r="M8" t="n">
-        <v>209.4829058762131</v>
+        <v>209.4829058762132</v>
       </c>
       <c r="N8" t="n">
-        <v>208.2121457970539</v>
+        <v>208.212145797054</v>
       </c>
       <c r="O8" t="n">
-        <v>210.0787859308331</v>
+        <v>210.0787859308332</v>
       </c>
       <c r="P8" t="n">
         <v>214.1468792646041</v>
@@ -8532,16 +8532,16 @@
         <v>120.8313713882156</v>
       </c>
       <c r="K9" t="n">
-        <v>127.5757920412205</v>
+        <v>127.5757920412206</v>
       </c>
       <c r="L9" t="n">
-        <v>124.7509506187524</v>
+        <v>124.7509506187525</v>
       </c>
       <c r="M9" t="n">
-        <v>126.0260831566814</v>
+        <v>126.0260831566815</v>
       </c>
       <c r="N9" t="n">
-        <v>114.8074317919413</v>
+        <v>114.8074317919414</v>
       </c>
       <c r="O9" t="n">
         <v>127.4706082116726</v>
@@ -8550,7 +8550,7 @@
         <v>121.8347508378851</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.8667351544936</v>
+        <v>131.8667351544937</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.9607951918618</v>
+        <v>126.9607951918619</v>
       </c>
       <c r="M10" t="n">
-        <v>130.5711623489675</v>
+        <v>130.5711623489676</v>
       </c>
       <c r="N10" t="n">
         <v>119.5295770947138</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9638,25 +9638,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8810905706554</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>21.88039004921939</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>274.8351763665433</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>343.5485285966302</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>402.5500016878933</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>28.6560847760378</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>187.8883066283066</v>
       </c>
       <c r="O32" t="n">
-        <v>274.8351763665431</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>277.2206841544149</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>174.4519134245563</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>71.87446026386806</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>167.7369666428365</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>343.5485285966308</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>124.5185911550056</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>336.8335818149096</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>79.05303851316427</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>282.8145857064751</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>73.92207912925554</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691217</v>
+        <v>54.77549063691213</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>73.9220791292567</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>313.106111847757</v>
+        <v>79.8565101043838</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>340.3534402993359</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.03107954365993</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.34234686904787</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.35522289712142</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>128.6975697661692</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>297.9288497346196</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>360.2497635145769</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,16 +23783,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>153.2460080007435</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>200.3232098200253</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.040388849890391</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>298.5690065785363</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>301.9745296463605</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>356.2040836028348</v>
+        <v>356.2040836028349</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>24.89423331510326</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>277.0802963312584</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953432.2926084899</v>
+        <v>953432.29260849</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>969962.5997872445</v>
+        <v>969962.5997872442</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.1693585192</v>
+        <v>409638.1693585193</v>
       </c>
       <c r="C2" t="n">
         <v>409638.1693585191</v>
@@ -26320,40 +26320,40 @@
         <v>409642.8982981934</v>
       </c>
       <c r="E2" t="n">
-        <v>377713.253253322</v>
+        <v>377713.2532533222</v>
       </c>
       <c r="F2" t="n">
-        <v>377713.2532533219</v>
+        <v>377713.2532533223</v>
       </c>
       <c r="G2" t="n">
-        <v>384325.3761248237</v>
+        <v>384325.3761248234</v>
       </c>
       <c r="H2" t="n">
-        <v>384325.3761248234</v>
+        <v>384325.3761248233</v>
       </c>
       <c r="I2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="J2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="K2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="L2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321416</v>
       </c>
-      <c r="M2" t="n">
-        <v>410520.8849321414</v>
-      </c>
       <c r="N2" t="n">
-        <v>410520.884932141</v>
+        <v>410520.8849321413</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321413</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321409</v>
+        <v>410520.8849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25312.06338852339</v>
+        <v>25312.06338852331</v>
       </c>
       <c r="E3" t="n">
-        <v>1133284.321149371</v>
+        <v>1133284.321149372</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7276.025892760566</v>
+        <v>7276.025892760509</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45099.85441502762</v>
+        <v>45099.85441502774</v>
       </c>
       <c r="J3" t="n">
-        <v>33793.44926224778</v>
+        <v>33793.44926224771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7276.025892760566</v>
+        <v>7276.025892760475</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>30304.08340211346</v>
+        <v>30304.08340211352</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>418002.9401975755</v>
       </c>
       <c r="E4" t="n">
-        <v>51785.79169101208</v>
+        <v>51785.79169101209</v>
       </c>
       <c r="F4" t="n">
-        <v>51785.79169101208</v>
+        <v>51785.79169101205</v>
       </c>
       <c r="G4" t="n">
-        <v>59328.45881705843</v>
+        <v>59328.4588170584</v>
       </c>
       <c r="H4" t="n">
-        <v>59328.45881705845</v>
+        <v>59328.4588170584</v>
       </c>
       <c r="I4" t="n">
         <v>79454.17877615489</v>
       </c>
       <c r="J4" t="n">
-        <v>78703.96570883349</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="K4" t="n">
+        <v>78703.96570883354</v>
+      </c>
+      <c r="L4" t="n">
         <v>78703.96570883348</v>
-      </c>
-      <c r="L4" t="n">
-        <v>78703.96570883349</v>
       </c>
       <c r="M4" t="n">
         <v>78703.96570883348</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883349</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883346</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34271.91803061347</v>
       </c>
       <c r="E5" t="n">
-        <v>77801.6714704734</v>
+        <v>77801.67147047343</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.6714704734</v>
+        <v>77801.67147047343</v>
       </c>
       <c r="G5" t="n">
         <v>78566.28174644653</v>
@@ -26488,25 +26488,25 @@
         <v>78566.28174644653</v>
       </c>
       <c r="I5" t="n">
-        <v>88877.88236630612</v>
+        <v>88877.88236630613</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49512.5698075843</v>
+        <v>-49516.9833854523</v>
       </c>
       <c r="C6" t="n">
-        <v>-49512.56980758442</v>
+        <v>-49516.98338545254</v>
       </c>
       <c r="D6" t="n">
-        <v>-67944.02331851897</v>
+        <v>-67948.4132516886</v>
       </c>
       <c r="E6" t="n">
-        <v>-885158.5310575345</v>
+        <v>-885322.5692159289</v>
       </c>
       <c r="F6" t="n">
-        <v>248125.7900918364</v>
+        <v>247961.7519334429</v>
       </c>
       <c r="G6" t="n">
-        <v>239154.6096685582</v>
+        <v>239023.6321245214</v>
       </c>
       <c r="H6" t="n">
-        <v>246430.6355613185</v>
+        <v>246299.6580172818</v>
       </c>
       <c r="I6" t="n">
-        <v>197088.9693746529</v>
+        <v>197088.9693746527</v>
       </c>
       <c r="J6" t="n">
         <v>208645.5282862542</v>
@@ -26552,16 +26552,16 @@
         <v>235162.9516557414</v>
       </c>
       <c r="M6" t="n">
-        <v>35250.40925642877</v>
+        <v>35250.4092564289</v>
       </c>
       <c r="N6" t="n">
-        <v>242438.9775485014</v>
+        <v>242438.9775485016</v>
       </c>
       <c r="O6" t="n">
-        <v>212134.8941463882</v>
+        <v>212134.8941463884</v>
       </c>
       <c r="P6" t="n">
-        <v>242438.9775485014</v>
+        <v>242438.977548502</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="G2" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="H2" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="I2" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.9751366185926</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859253</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296392094</v>
+        <v>29.55587296392086</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
-        <v>1001.000149807878</v>
+        <v>1001.000149807879</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26823,13 +26823,13 @@
         <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>9.095032365950708</v>
+        <v>9.095032365950637</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.88010425264186</v>
+        <v>37.88010425264196</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950708</v>
+        <v>9.095032365950594</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264183</v>
+        <v>37.8801042526419</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296392094</v>
+        <v>29.55587296392086</v>
       </c>
       <c r="E3" t="n">
-        <v>1060.220827629377</v>
+        <v>1060.220827629378</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>169.5986944055852</v>
+        <v>169.5986944055857</v>
       </c>
       <c r="J4" t="n">
-        <v>13.33631140073646</v>
+        <v>13.33631140073589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950708</v>
+        <v>9.095032365950637</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264186</v>
+        <v>37.88010425264196</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>205.8951748269222</v>
       </c>
       <c r="J8" t="n">
-        <v>1.864795794927753</v>
+        <v>1.864795794927781</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.21073096700856</v>
+        <v>96.21073096700857</v>
       </c>
       <c r="S9" t="n">
         <v>170.5023303302321</v>
@@ -28032,10 +28032,10 @@
         <v>153.8476744721001</v>
       </c>
       <c r="J10" t="n">
-        <v>89.59104857502666</v>
+        <v>89.59104857502668</v>
       </c>
       <c r="K10" t="n">
-        <v>16.07729417868762</v>
+        <v>16.07729417868763</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.69910643414232</v>
+        <v>81.69910643414234</v>
       </c>
       <c r="R10" t="n">
         <v>174.8969430545539</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292594</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292591</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="C17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="D17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="E17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="F17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="G17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="H17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="T17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="U17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="V17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="W17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="X17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="C19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="D19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="E19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="F19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="G19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="H19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="I19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="J19" t="n">
-        <v>50.67196213887664</v>
+        <v>11.41914327174738</v>
       </c>
       <c r="K19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="L19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="M19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="N19" t="n">
-        <v>11.41914327174499</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="O19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="P19" t="n">
-        <v>50.67196213887664</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="R19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="S19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="T19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="U19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="V19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="W19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="X19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="C20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="D20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="E20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="F20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="G20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="H20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="T20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="U20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="V20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="W20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="X20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="C22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="D22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="E22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="F22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="G22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="H22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="I22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>11.4191432717472</v>
       </c>
       <c r="K22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="L22" t="n">
-        <v>50.67196213887664</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="N22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="O22" t="n">
-        <v>11.41914327174464</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="P22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="R22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="S22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="T22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="U22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="V22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="W22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="X22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="C23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="D23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="E23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="F23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="G23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="H23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="T23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="U23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="V23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="W23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="X23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="C25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="D25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="E25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="F25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="G25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="H25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="I25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="J25" t="n">
-        <v>11.41914327174475</v>
+        <v>11.41914327174683</v>
       </c>
       <c r="K25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="M25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="N25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="O25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="P25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.67196213887664</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="S25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="T25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="U25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="V25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="W25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="X25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.67196213887664</v>
+        <v>50.67196213887654</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859244</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1188175797544559</v>
+        <v>0.1188175797544556</v>
       </c>
       <c r="H8" t="n">
-        <v>1.216840538660322</v>
+        <v>1.216840538660319</v>
       </c>
       <c r="I8" t="n">
-        <v>4.580714743483668</v>
+        <v>4.580714743483655</v>
       </c>
       <c r="J8" t="n">
-        <v>10.08449355968476</v>
+        <v>10.08449355968474</v>
       </c>
       <c r="K8" t="n">
-        <v>15.11404171069089</v>
+        <v>15.11404171069085</v>
       </c>
       <c r="L8" t="n">
-        <v>18.75030521710132</v>
+        <v>18.75030521710127</v>
       </c>
       <c r="M8" t="n">
-        <v>20.86332735105963</v>
+        <v>20.86332735105957</v>
       </c>
       <c r="N8" t="n">
-        <v>21.20091779953698</v>
+        <v>21.20091779953692</v>
       </c>
       <c r="O8" t="n">
-        <v>20.01942549085361</v>
+        <v>20.01942549085355</v>
       </c>
       <c r="P8" t="n">
-        <v>17.08611649066547</v>
+        <v>17.08611649066542</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.83096191570901</v>
+        <v>12.83096191570898</v>
       </c>
       <c r="R8" t="n">
-        <v>7.46367479425085</v>
+        <v>7.463674794250829</v>
       </c>
       <c r="S8" t="n">
-        <v>2.707555598654668</v>
+        <v>2.70755559865466</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5201239553751312</v>
+        <v>0.5201239553751297</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009505406380356475</v>
+        <v>0.009505406380356447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0635730097714526</v>
+        <v>0.0635730097714524</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6139814364769238</v>
+        <v>0.613981436476922</v>
       </c>
       <c r="I9" t="n">
-        <v>2.188807573271504</v>
+        <v>2.188807573271498</v>
       </c>
       <c r="J9" t="n">
-        <v>6.006255278451142</v>
+        <v>6.006255278451125</v>
       </c>
       <c r="K9" t="n">
-        <v>10.26564693313847</v>
+        <v>10.26564693313844</v>
       </c>
       <c r="L9" t="n">
-        <v>13.80342916112176</v>
+        <v>13.80342916112172</v>
       </c>
       <c r="M9" t="n">
-        <v>16.10795076533691</v>
+        <v>16.10795076533686</v>
       </c>
       <c r="N9" t="n">
-        <v>16.53428029139196</v>
+        <v>16.53428029139192</v>
       </c>
       <c r="O9" t="n">
-        <v>15.12563623277188</v>
+        <v>15.12563623277184</v>
       </c>
       <c r="P9" t="n">
-        <v>12.13965657644519</v>
+        <v>12.13965657644515</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.115038931527879</v>
+        <v>8.115038931527856</v>
       </c>
       <c r="R9" t="n">
-        <v>3.947103185634576</v>
+        <v>3.947103185634564</v>
       </c>
       <c r="S9" t="n">
-        <v>1.180840773605708</v>
+        <v>1.180840773605705</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2562438420173899</v>
+        <v>0.2562438420173892</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00418243485338504</v>
+        <v>0.004182434853385028</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05329747583657874</v>
+        <v>0.05329747583657859</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4738630124379459</v>
+        <v>0.4738630124379445</v>
       </c>
       <c r="I10" t="n">
-        <v>1.602800455158205</v>
+        <v>1.6028004551582</v>
       </c>
       <c r="J10" t="n">
-        <v>3.768131541646117</v>
+        <v>3.768131541646106</v>
       </c>
       <c r="K10" t="n">
-        <v>6.192197647195238</v>
+        <v>6.192197647195219</v>
       </c>
       <c r="L10" t="n">
-        <v>7.923881089376444</v>
+        <v>7.923881089376422</v>
       </c>
       <c r="M10" t="n">
-        <v>8.354621598637518</v>
+        <v>8.354621598637495</v>
       </c>
       <c r="N10" t="n">
-        <v>8.155967370519368</v>
+        <v>8.155967370519345</v>
       </c>
       <c r="O10" t="n">
-        <v>7.533355948246605</v>
+        <v>7.533355948246583</v>
       </c>
       <c r="P10" t="n">
-        <v>6.446087441180393</v>
+        <v>6.446087441180374</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.462936817552062</v>
+        <v>4.462936817552049</v>
       </c>
       <c r="R10" t="n">
-        <v>2.396448322615622</v>
+        <v>2.396448322615615</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9288296470792855</v>
+        <v>0.9288296470792828</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2277255785744727</v>
+        <v>0.2277255785744721</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002907135045631571</v>
+        <v>0.002907135045631563</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599215</v>
+        <v>87.1553463859922</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172456</v>
       </c>
       <c r="L13" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431242</v>
       </c>
       <c r="M13" t="n">
         <v>389.2103091664098</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404661</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955658</v>
       </c>
       <c r="P13" t="n">
         <v>276.5340009180364</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599215</v>
+        <v>87.15534638599213</v>
       </c>
       <c r="K16" t="n">
         <v>247.6245893172455</v>
@@ -35811,7 +35811,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N16" t="n">
         <v>386.433875940466</v>
@@ -35820,7 +35820,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q16" t="n">
         <v>119.9711683108196</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.25037875194286</v>
+        <v>56.9975598848136</v>
       </c>
       <c r="K19" t="n">
-        <v>256.7196216831962</v>
+        <v>256.7196216831961</v>
       </c>
       <c r="L19" t="n">
-        <v>370.4293343090748</v>
+        <v>370.4293343090746</v>
       </c>
       <c r="M19" t="n">
         <v>398.3053415323604</v>
       </c>
       <c r="N19" t="n">
-        <v>356.276089439285</v>
+        <v>395.5289083064166</v>
       </c>
       <c r="O19" t="n">
-        <v>353.0250923615164</v>
+        <v>353.0250923615163</v>
       </c>
       <c r="P19" t="n">
-        <v>285.629033283987</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>129.0662006767702</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687134</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36136,7 +36136,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193733</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>56.99755988481343</v>
       </c>
       <c r="K22" t="n">
-        <v>256.7196216831962</v>
+        <v>256.7196216831961</v>
       </c>
       <c r="L22" t="n">
-        <v>370.4293343090748</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>398.3053415323604</v>
       </c>
       <c r="N22" t="n">
-        <v>395.5289083064167</v>
+        <v>395.5289083064166</v>
       </c>
       <c r="O22" t="n">
-        <v>313.7722734943844</v>
+        <v>353.0250923615163</v>
       </c>
       <c r="P22" t="n">
         <v>285.629033283987</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.0662006767703</v>
+        <v>129.0662006767702</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>591.0723771260559</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>420.6423762685912</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>56.99755988481098</v>
+        <v>56.99755988481306</v>
       </c>
       <c r="K25" t="n">
-        <v>256.7196216831962</v>
+        <v>256.7196216831961</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>370.4293343090746</v>
       </c>
       <c r="M25" t="n">
         <v>398.3053415323604</v>
       </c>
       <c r="N25" t="n">
-        <v>395.5289083064167</v>
+        <v>395.5289083064166</v>
       </c>
       <c r="O25" t="n">
-        <v>353.0250923615164</v>
+        <v>353.0250923615163</v>
       </c>
       <c r="P25" t="n">
         <v>285.629033283987</v>
       </c>
       <c r="Q25" t="n">
-        <v>129.0662006767703</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>612.0264629219438</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>799.1386429889624</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>858.1401160802254</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>536.7090856642569</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37069,25 +37069,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>740.1901420412181</v>
       </c>
       <c r="O32" t="n">
-        <v>782.8881772547622</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37312,22 +37312,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>816.1417999846417</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>425.2462182282758</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>624.1762956767795</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,16 +37710,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>623.3270810351687</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>895.8503640095423</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38020,10 +38020,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>580.1087055473378</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>875.7546976451364</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38035,7 +38035,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,13 +38184,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412332</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
